--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_482__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_482__Reeval_Halton_Modell_1.1.xlsx
@@ -5993,298 +5993,298 @@
                   <c:v>37.54841995239258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44.59943008422852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.10385513305664</c:v>
+                  <c:v>52.10385131835938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.596223831176758</c:v>
+                  <c:v>-4.596225261688232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.443329811096191</c:v>
+                  <c:v>3.443331003189087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.763428568840027</c:v>
+                  <c:v>1.763428449630737</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6609809398651123</c:v>
+                  <c:v>0.6609821319580078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.54686737060547</c:v>
+                  <c:v>48.5468635559082</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>50.5483512878418</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.27951049804688</c:v>
+                  <c:v>46.27949905395508</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.969880223274231</c:v>
+                  <c:v>0.9698808193206787</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.377202987670898</c:v>
+                  <c:v>3.377204179763794</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.55928039550781</c:v>
+                  <c:v>45.55927658081055</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.859661817550659</c:v>
+                  <c:v>-1.859656929969788</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.06357192993164</c:v>
+                  <c:v>41.06357574462891</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.393771231174469</c:v>
+                  <c:v>-0.393776148557663</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>58.25422286987305</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.202050447463989</c:v>
+                  <c:v>2.202049255371094</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.22944164276123</c:v>
+                  <c:v>2.229440212249756</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.270713090896606</c:v>
+                  <c:v>-1.270715475082397</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.36269378662109</c:v>
+                  <c:v>43.36269760131836</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>42.85351943969727</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.92390441894531</c:v>
+                  <c:v>10.92391300201416</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.252870321273804</c:v>
+                  <c:v>-3.252872228622437</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.78931713104248</c:v>
+                  <c:v>4.789321422576904</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41.85255813598633</c:v>
+                  <c:v>41.85256195068359</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5513697266578674</c:v>
+                  <c:v>0.5513675808906555</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.918605804443359</c:v>
+                  <c:v>3.91860818862915</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5933288335800171</c:v>
+                  <c:v>0.5933282375335693</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53.81501007080078</c:v>
+                  <c:v>53.81501388549805</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>38.21028137207031</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-4.101130485534668</c:v>
+                  <c:v>-4.101142883300781</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.503215432167053</c:v>
+                  <c:v>-1.503217220306396</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.8133161664009094</c:v>
+                  <c:v>-0.8133075833320618</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.70202648639679</c:v>
+                  <c:v>-1.702031373977661</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>51.36819839477539</c:v>
+                  <c:v>51.36819458007812</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.103044271469116</c:v>
+                  <c:v>1.10304057598114</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>19.60538864135742</c:v>
+                  <c:v>19.60537910461426</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.730415344238281</c:v>
+                  <c:v>7.730421543121338</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>52.96891021728516</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.665769577026367</c:v>
+                  <c:v>9.665770530700684</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>33.52672958374023</c:v>
+                  <c:v>33.52674102783203</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>40.62393569946289</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.24845504760742</c:v>
+                  <c:v>50.24845886230469</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.754884719848633</c:v>
+                  <c:v>2.754879713058472</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>49.58076858520508</c:v>
+                  <c:v>49.58077621459961</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.347101449966431</c:v>
+                  <c:v>1.347097396850586</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>46.66271591186523</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>6.432215690612793</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.950423717498779</c:v>
+                  <c:v>5.950420379638672</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.644352555274963</c:v>
+                  <c:v>1.644360303878784</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>39.06146621704102</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>40.06360626220703</c:v>
+                  <c:v>40.06361389160156</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.512803792953491</c:v>
+                  <c:v>2.512808561325073</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>40.82702255249023</c:v>
+                  <c:v>40.8270263671875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19.70207214355469</c:v>
+                  <c:v>19.70207786560059</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>49.14280319213867</c:v>
+                  <c:v>49.14281463623047</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>21.25680160522461</c:v>
+                  <c:v>21.25679588317871</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53.32381820678711</c:v>
+                  <c:v>53.32383346557617</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.922665596008301</c:v>
+                  <c:v>9.922657012939453</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>40.5498046875</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.29961296916008</c:v>
+                  <c:v>0.2996117472648621</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>32.73768997192383</c:v>
+                  <c:v>32.73769378662109</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>27.15430641174316</c:v>
+                  <c:v>27.15430450439453</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>43.22626495361328</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15.01638412475586</c:v>
+                  <c:v>15.01638507843018</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>46.76319885253906</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.94072961807251</c:v>
+                  <c:v>1.940731048583984</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>23.88287162780762</c:v>
+                  <c:v>23.88287544250488</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.6253419518470764</c:v>
+                  <c:v>0.6253416538238525</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>32.78470993041992</c:v>
+                  <c:v>32.78472518920898</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.098273754119873</c:v>
+                  <c:v>1.098275303840637</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45.32025909423828</c:v>
+                  <c:v>45.32026290893555</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.03560737147927284</c:v>
+                  <c:v>0.0356069877743721</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>20.0300350189209</c:v>
+                  <c:v>20.03003692626953</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.4331198930740356</c:v>
+                  <c:v>-0.4331248104572296</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>46.10459136962891</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.00742769241333</c:v>
+                  <c:v>6.007428169250488</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-3.237817049026489</c:v>
+                  <c:v>-3.237817287445068</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>48.76110458374023</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>25.83636474609375</c:v>
+                  <c:v>25.83635139465332</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>44.63393402099609</c:v>
+                  <c:v>44.63393783569336</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>26.64325332641602</c:v>
+                  <c:v>26.64325904846191</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.270855665206909</c:v>
+                  <c:v>1.27085554599762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>52.10385513305664</v>
+        <v>52.10385131835938</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-4.596223831176758</v>
+        <v>-4.596225261688232</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.443329811096191</v>
+        <v>3.443331003189087</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.763428568840027</v>
+        <v>1.763428449630737</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6609809398651123</v>
+        <v>0.6609821319580078</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>48.54686737060547</v>
+        <v>48.5468635559082</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>46.27951049804688</v>
+        <v>46.27949905395508</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.969880223274231</v>
+        <v>0.9698808193206787</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.377202987670898</v>
+        <v>3.377204179763794</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>45.55928039550781</v>
+        <v>45.55927658081055</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-1.859661817550659</v>
+        <v>-1.859656929969788</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>41.06357192993164</v>
+        <v>41.06357574462891</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-0.393771231174469</v>
+        <v>-0.393776148557663</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.202050447463989</v>
+        <v>2.202049255371094</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.22944164276123</v>
+        <v>2.229440212249756</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-1.270713090896606</v>
+        <v>-1.270715475082397</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>43.36269378662109</v>
+        <v>43.36269760131836</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>10.92390441894531</v>
+        <v>10.92391300201416</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-3.252870321273804</v>
+        <v>-3.252872228622437</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>4.78931713104248</v>
+        <v>4.789321422576904</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>41.85255813598633</v>
+        <v>41.85256195068359</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.5513697266578674</v>
+        <v>0.5513675808906555</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>3.918605804443359</v>
+        <v>3.91860818862915</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.5933288335800171</v>
+        <v>0.5933282375335693</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.8156</v>
       </c>
       <c r="F41">
-        <v>53.81501007080078</v>
+        <v>53.81501388549805</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>-4.101130485534668</v>
+        <v>-4.101142883300781</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-1.503215432167053</v>
+        <v>-1.503217220306396</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-0.8133161664009094</v>
+        <v>-0.8133075833320618</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-1.70202648639679</v>
+        <v>-1.702031373977661</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>51.36819839477539</v>
+        <v>51.36819458007812</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.103044271469116</v>
+        <v>1.10304057598114</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>19.60538864135742</v>
+        <v>19.60537910461426</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>7.730415344238281</v>
+        <v>7.730421543121338</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>9.665769577026367</v>
+        <v>9.665770530700684</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>33.52672958374023</v>
+        <v>33.52674102783203</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>50.24845504760742</v>
+        <v>50.24845886230469</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2.754884719848633</v>
+        <v>2.754879713058472</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>43.4308</v>
       </c>
       <c r="F58">
-        <v>49.58076858520508</v>
+        <v>49.58077621459961</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.347101449966431</v>
+        <v>1.347097396850586</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>5.950423717498779</v>
+        <v>5.950420379638672</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>1.644352555274963</v>
+        <v>1.644360303878784</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>40.06360626220703</v>
+        <v>40.06361389160156</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>2.512803792953491</v>
+        <v>2.512808561325073</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>40.82702255249023</v>
+        <v>40.8270263671875</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>19.70207214355469</v>
+        <v>19.70207786560059</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>49.14280319213867</v>
+        <v>49.14281463623047</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>21.25680160522461</v>
+        <v>21.25679588317871</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>53.32381820678711</v>
+        <v>53.32383346557617</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>9.922665596008301</v>
+        <v>9.922657012939453</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.29961296916008</v>
+        <v>0.2996117472648621</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>32.73768997192383</v>
+        <v>32.73769378662109</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>27.15430641174316</v>
+        <v>27.15430450439453</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>15.01638412475586</v>
+        <v>15.01638507843018</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.94072961807251</v>
+        <v>1.940731048583984</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>23.88287162780762</v>
+        <v>23.88287544250488</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.6253419518470764</v>
+        <v>0.6253416538238525</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>32.78470993041992</v>
+        <v>32.78472518920898</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.098273754119873</v>
+        <v>1.098275303840637</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>45.32025909423828</v>
+        <v>45.32026290893555</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.03560737147927284</v>
+        <v>0.0356069877743721</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>20.0300350189209</v>
+        <v>20.03003692626953</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>-0.4331198930740356</v>
+        <v>-0.4331248104572296</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>6.00742769241333</v>
+        <v>6.007428169250488</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-3.237817049026489</v>
+        <v>-3.237817287445068</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>25.83636474609375</v>
+        <v>25.83635139465332</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>45.4271</v>
       </c>
       <c r="F99">
-        <v>44.63393402099609</v>
+        <v>44.63393783569336</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>26.64325332641602</v>
+        <v>26.64325904846191</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.270855665206909</v>
+        <v>1.27085554599762</v>
       </c>
     </row>
     <row r="102" spans="1:6">
